--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="H2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="I2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="J2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N2">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O2">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P2">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q2">
-        <v>70.743522485398</v>
+        <v>0.134323267844</v>
       </c>
       <c r="R2">
-        <v>636.691702368582</v>
+        <v>1.208909410596</v>
       </c>
       <c r="S2">
-        <v>0.003831819295918509</v>
+        <v>2.040907033847564E-05</v>
       </c>
       <c r="T2">
-        <v>0.003831819295918509</v>
+        <v>2.040907033847564E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="H3">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="I3">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="J3">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>241.998978</v>
       </c>
       <c r="O3">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P3">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q3">
-        <v>5118.568218809318</v>
+        <v>5.201337811704667</v>
       </c>
       <c r="R3">
-        <v>46067.11396928386</v>
+        <v>46.812040305342</v>
       </c>
       <c r="S3">
-        <v>0.2772469871337992</v>
+        <v>0.0007902909969145398</v>
       </c>
       <c r="T3">
-        <v>0.2772469871337992</v>
+        <v>0.0007902909969145399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="H4">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="I4">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="J4">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N4">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O4">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P4">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q4">
-        <v>1658.923861252758</v>
+        <v>1.875833220581111</v>
       </c>
       <c r="R4">
-        <v>14930.31475127483</v>
+        <v>16.88249898523</v>
       </c>
       <c r="S4">
-        <v>0.08985552653700597</v>
+        <v>0.0002850140020904745</v>
       </c>
       <c r="T4">
-        <v>0.08985552653700599</v>
+        <v>0.0002850140020904745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="H5">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="I5">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="J5">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N5">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O5">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P5">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q5">
-        <v>43.78505198737133</v>
+        <v>0.03570383147922222</v>
       </c>
       <c r="R5">
-        <v>394.065467886342</v>
+        <v>0.321334483313</v>
       </c>
       <c r="S5">
-        <v>0.002371615113067558</v>
+        <v>5.424838300232554E-06</v>
       </c>
       <c r="T5">
-        <v>0.002371615113067558</v>
+        <v>5.424838300232554E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.155386</v>
       </c>
       <c r="I6">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="J6">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N6">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O6">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P6">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q6">
-        <v>0.4293745586653334</v>
+        <v>0.8022954168560001</v>
       </c>
       <c r="R6">
-        <v>3.864371027988</v>
+        <v>7.220658751704001</v>
       </c>
       <c r="S6">
-        <v>2.325705112308929E-05</v>
+        <v>0.0001219007239599564</v>
       </c>
       <c r="T6">
-        <v>2.325705112308929E-05</v>
+        <v>0.0001219007239599565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.155386</v>
       </c>
       <c r="I7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="J7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>241.998978</v>
       </c>
       <c r="O7">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P7">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q7">
         <v>31.06691457727867</v>
@@ -883,10 +883,10 @@
         <v>279.602231195508</v>
       </c>
       <c r="S7">
-        <v>0.001682737847361781</v>
+        <v>0.00472030538702693</v>
       </c>
       <c r="T7">
-        <v>0.001682737847361781</v>
+        <v>0.004720305387026931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.155386</v>
       </c>
       <c r="I8">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="J8">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N8">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O8">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P8">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q8">
-        <v>10.06876213906111</v>
+        <v>11.20410796889111</v>
       </c>
       <c r="R8">
-        <v>90.61885925155001</v>
+        <v>100.83697172002</v>
       </c>
       <c r="S8">
-        <v>0.0005453739889532874</v>
+        <v>0.00170235158276927</v>
       </c>
       <c r="T8">
-        <v>0.0005453739889532875</v>
+        <v>0.001702351582769271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1.155386</v>
       </c>
       <c r="I9">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="J9">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N9">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O9">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P9">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q9">
-        <v>0.2657513608697777</v>
+        <v>0.2132543439402222</v>
       </c>
       <c r="R9">
-        <v>2.391762247828</v>
+        <v>1.919289095462</v>
       </c>
       <c r="S9">
-        <v>1.439440893980936E-05</v>
+        <v>3.24018539402731E-05</v>
       </c>
       <c r="T9">
-        <v>1.439440893980936E-05</v>
+        <v>3.240185394027311E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="H10">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="I10">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="J10">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N10">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O10">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P10">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q10">
-        <v>0.02356980492600001</v>
+        <v>0.0170300619</v>
       </c>
       <c r="R10">
-        <v>0.212128244334</v>
+        <v>0.1532705571</v>
       </c>
       <c r="S10">
-        <v>1.276657284560911E-06</v>
+        <v>2.587546720418918E-06</v>
       </c>
       <c r="T10">
-        <v>1.276657284560911E-06</v>
+        <v>2.587546720418918E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="H11">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="I11">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="J11">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>241.998978</v>
       </c>
       <c r="O11">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P11">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q11">
-        <v>1.705366797966</v>
+        <v>0.65944721505</v>
       </c>
       <c r="R11">
-        <v>15.348301181694</v>
+        <v>5.93502493545</v>
       </c>
       <c r="S11">
-        <v>9.237110584101441E-05</v>
+        <v>0.0001001963755981425</v>
       </c>
       <c r="T11">
-        <v>9.237110584101441E-05</v>
+        <v>0.0001001963755981425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="H12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="I12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="J12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N12">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O12">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P12">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q12">
-        <v>0.552708013725</v>
+        <v>0.23782592825</v>
       </c>
       <c r="R12">
-        <v>4.974372123525001</v>
+        <v>2.14043335425</v>
       </c>
       <c r="S12">
-        <v>2.993740144106329E-05</v>
+        <v>3.613525918387133E-05</v>
       </c>
       <c r="T12">
-        <v>2.993740144106329E-05</v>
+        <v>3.613525918387134E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="H13">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="I13">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="J13">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N13">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O13">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P13">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q13">
-        <v>0.014587980606</v>
+        <v>0.004526680075</v>
       </c>
       <c r="R13">
-        <v>0.131291825454</v>
+        <v>0.040740120675</v>
       </c>
       <c r="S13">
-        <v>7.901572272725557E-07</v>
+        <v>6.877835354463338E-07</v>
       </c>
       <c r="T13">
-        <v>7.901572272725557E-07</v>
+        <v>6.877835354463341E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="H14">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="I14">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="J14">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N14">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O14">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P14">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q14">
-        <v>118.309012100082</v>
+        <v>121.032112460796</v>
       </c>
       <c r="R14">
-        <v>1064.781108900738</v>
+        <v>1089.289012147164</v>
       </c>
       <c r="S14">
-        <v>0.006408201620716909</v>
+        <v>0.01838961287999231</v>
       </c>
       <c r="T14">
-        <v>0.006408201620716909</v>
+        <v>0.01838961287999231</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="H15">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="I15">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="J15">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>241.998978</v>
       </c>
       <c r="O15">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P15">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q15">
-        <v>8560.115867275363</v>
+        <v>4686.670545448243</v>
       </c>
       <c r="R15">
-        <v>77041.04280547825</v>
+        <v>42180.03490903418</v>
       </c>
       <c r="S15">
-        <v>0.4636582404034839</v>
+        <v>0.7120924792151542</v>
       </c>
       <c r="T15">
-        <v>0.4636582404034839</v>
+        <v>0.7120924792151544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="H16">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="I16">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="J16">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N16">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O16">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P16">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q16">
-        <v>2774.326698456075</v>
+        <v>1690.22136637373</v>
       </c>
       <c r="R16">
-        <v>24968.94028610467</v>
+        <v>15211.99229736357</v>
       </c>
       <c r="S16">
-        <v>0.1502712644612818</v>
+        <v>0.2568121466042543</v>
       </c>
       <c r="T16">
-        <v>0.1502712644612818</v>
+        <v>0.2568121466042544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="H17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="I17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="J17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N17">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O17">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P17">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q17">
-        <v>73.22460153784199</v>
+        <v>32.170972432663</v>
       </c>
       <c r="R17">
-        <v>659.0214138405779</v>
+        <v>289.538751893967</v>
       </c>
       <c r="S17">
-        <v>0.003966206816554288</v>
+        <v>0.004888055880221114</v>
       </c>
       <c r="T17">
-        <v>0.003966206816554288</v>
+        <v>0.004888055880221115</v>
       </c>
     </row>
   </sheetData>
